--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/onavarrete_earth_ac_cr/Documents/2025/ruslan/datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EARTH\OneDrive - Universidad EARTH\Desktop\One drive\OneDrive - Instituto Nacional de Aprendizaje\Documents\Proyectos\ruslan2\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{8BDFCBAD-BD2F-4B35-A3FE-1FC8F037E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B38049-5C23-41D3-9C31-99C7607A14C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636C5B5-7B59-4E28-A00F-F3DE735E61A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{D9A35420-DDE7-4C0E-B3DC-3697DF7E858F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D9A35420-DDE7-4C0E-B3DC-3697DF7E858F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ha por Mes" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja!$A$1:$J$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja!$A$1:$J$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="48">
   <si>
     <t>Ha</t>
   </si>
@@ -320,9 +320,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -367,7 +367,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2384,7 +2384,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5668,7 +5668,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="EARTH" refreshedDate="45960.83926458333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="81" xr:uid="{06441903-2E2E-42FA-9DE5-ECDDB4DA6003}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J82" sheet="Hoja"/>
+    <worksheetSource ref="A1:J85" sheet="Hoja"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Año" numFmtId="0">
@@ -7460,7 +7460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7778,11 +7778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC7E492-36F1-45DF-A443-859C6225CDF7}">
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="84" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="J6" zoomScale="84" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6328125" style="6" bestFit="1" customWidth="1"/>
@@ -8304,10 +8304,10 @@
   <dimension ref="A3:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
@@ -8732,13 +8732,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFEE9A8-96B4-4338-BEB2-3F3FAE19909E}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="128" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
@@ -8773,173 +8776,150 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="12">
         <v>2025</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="17">
-        <v>12424</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1646</v>
-      </c>
-      <c r="E2" s="17">
-        <v>26466</v>
-      </c>
-      <c r="F2" s="17">
-        <v>393589</v>
-      </c>
-      <c r="G2" s="17">
-        <v>30152</v>
-      </c>
-      <c r="H2" s="17">
-        <v>77</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" ref="I2:I4" si="0">+C2/D2</f>
-        <v>7.5479951397326852</v>
-      </c>
-      <c r="J2" s="3">
-        <f t="shared" ref="J2:J4" si="1">+E2/C2</f>
-        <v>2.1302318094011592</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>2025</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="17">
-        <v>11414</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1495</v>
-      </c>
-      <c r="E3" s="17">
-        <v>23679</v>
-      </c>
-      <c r="F3" s="17">
-        <v>352038</v>
-      </c>
-      <c r="G3" s="17">
-        <v>90671</v>
-      </c>
-      <c r="H3" s="17">
-        <v>80</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>7.6347826086956525</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0745575608901348</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C3" s="13">
+        <v>13126.59</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13">
+        <v>24607</v>
+      </c>
+      <c r="F3" s="13">
+        <v>374737.13</v>
+      </c>
+      <c r="G3" s="13">
+        <v>13703.52</v>
+      </c>
+      <c r="H3" s="13">
+        <v>89</v>
+      </c>
+      <c r="I3" s="3" t="e">
+        <f t="shared" ref="I3:I7" si="0">+C3/D3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="12">
         <v>2025</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="18">
-        <v>12984</v>
-      </c>
-      <c r="D4" s="18">
-        <v>1650</v>
-      </c>
-      <c r="E4" s="18">
-        <v>25189</v>
-      </c>
-      <c r="F4" s="18">
-        <v>385770</v>
-      </c>
-      <c r="G4" s="18">
-        <v>8308</v>
-      </c>
-      <c r="H4" s="18">
-        <v>74</v>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13">
+        <v>15152.25</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1.88</v>
+      </c>
+      <c r="E4" s="13">
+        <v>30074</v>
+      </c>
+      <c r="F4" s="13">
+        <v>443486.18</v>
+      </c>
+      <c r="G4" s="13">
+        <v>26973.599999999999</v>
+      </c>
+      <c r="H4" s="13">
+        <v>83</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>7.8690909090909091</v>
+        <v>8059.7074468085111</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9400030807147257</v>
+        <f t="shared" ref="J4:J7" si="1">+E4/C4</f>
+        <v>1.984787737794717</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2025</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="18">
-        <v>13617</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1586</v>
-      </c>
-      <c r="E5" s="18">
-        <v>24150</v>
-      </c>
-      <c r="F5" s="18">
-        <v>370347</v>
-      </c>
-      <c r="G5" s="18">
-        <v>4363</v>
-      </c>
-      <c r="H5" s="18">
-        <v>80</v>
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17">
+        <v>12424</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1646</v>
+      </c>
+      <c r="E5" s="17">
+        <v>26466</v>
+      </c>
+      <c r="F5" s="17">
+        <v>393589</v>
+      </c>
+      <c r="G5" s="17">
+        <v>30152</v>
+      </c>
+      <c r="H5" s="17">
+        <v>77</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I5" si="2">+C5/D5</f>
-        <v>8.5857503152585117</v>
+        <f t="shared" si="0"/>
+        <v>7.5479951397326852</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5" si="3">+E5/C5</f>
-        <v>1.7735183961224938</v>
+        <f t="shared" si="1"/>
+        <v>2.1302318094011592</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2025</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="18">
-        <v>11090</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1246</v>
-      </c>
-      <c r="E6" s="18">
-        <v>18150</v>
-      </c>
-      <c r="F6" s="18">
-        <v>316073</v>
-      </c>
-      <c r="G6" s="18">
-        <v>6495</v>
-      </c>
-      <c r="H6" s="18">
-        <v>67</v>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17">
+        <v>11414</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1495</v>
+      </c>
+      <c r="E6" s="17">
+        <v>23679</v>
+      </c>
+      <c r="F6" s="17">
+        <v>352038</v>
+      </c>
+      <c r="G6" s="17">
+        <v>90671</v>
+      </c>
+      <c r="H6" s="17">
+        <v>80</v>
       </c>
       <c r="I6" s="3">
-        <f>+C6/D6</f>
-        <v>8.9004815409309792</v>
+        <f t="shared" si="0"/>
+        <v>7.6347826086956525</v>
       </c>
       <c r="J6" s="3">
-        <f>+E6/C6</f>
-        <v>1.6366095581605049</v>
+        <f t="shared" si="1"/>
+        <v>2.0745575608901348</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -8947,33 +8927,33 @@
         <v>2025</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7" s="18">
-        <v>8605.35</v>
+        <v>12984</v>
       </c>
       <c r="D7" s="18">
-        <v>951.6</v>
+        <v>1650</v>
       </c>
       <c r="E7" s="18">
-        <v>13360</v>
+        <v>25189</v>
       </c>
       <c r="F7" s="18">
-        <v>210023</v>
+        <v>385770</v>
       </c>
       <c r="G7" s="18">
-        <v>1452</v>
+        <v>8308</v>
       </c>
       <c r="H7" s="18">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" ref="I7:I19" si="4">+C7/D7</f>
-        <v>9.0430327868852469</v>
+        <f t="shared" si="0"/>
+        <v>7.8690909090909091</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" ref="J7:J19" si="5">+E7/C7</f>
-        <v>1.5525225586408455</v>
+        <f t="shared" si="1"/>
+        <v>1.9400030807147257</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -8981,33 +8961,33 @@
         <v>2025</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C8" s="18">
-        <v>11080</v>
+        <v>13617</v>
       </c>
       <c r="D8" s="18">
-        <v>1071.4000000000001</v>
+        <v>1586</v>
       </c>
       <c r="E8" s="18">
-        <v>14450</v>
+        <v>24150</v>
       </c>
       <c r="F8" s="18">
-        <v>252321</v>
+        <v>370347</v>
       </c>
       <c r="G8" s="18">
-        <v>150</v>
+        <v>4363</v>
       </c>
       <c r="H8" s="18">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="4"/>
-        <v>10.341609109576254</v>
+        <f t="shared" ref="I8" si="2">+C8/D8</f>
+        <v>8.5857503152585117</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3041516245487366</v>
+        <f t="shared" ref="J8" si="3">+E8/C8</f>
+        <v>1.7735183961224938</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -9015,33 +8995,33 @@
         <v>2025</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="18">
-        <v>12750</v>
+        <v>11090</v>
       </c>
       <c r="D9" s="18">
-        <v>1217.5</v>
+        <v>1246</v>
       </c>
       <c r="E9" s="18">
-        <v>17450</v>
+        <v>18150</v>
       </c>
       <c r="F9" s="18">
-        <v>281449</v>
+        <v>316073</v>
       </c>
       <c r="G9" s="18">
-        <v>0</v>
+        <v>6495</v>
       </c>
       <c r="H9" s="18">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="4"/>
-        <v>10.472279260780287</v>
+        <f>+C9/D9</f>
+        <v>8.9004815409309792</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3686274509803922</v>
+        <f>+E9/C9</f>
+        <v>1.6366095581605049</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -9049,117 +9029,135 @@
         <v>2025</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18">
+        <v>8605.35</v>
+      </c>
+      <c r="D10" s="18">
+        <v>951.6</v>
+      </c>
+      <c r="E10" s="18">
+        <v>13360</v>
+      </c>
+      <c r="F10" s="18">
+        <v>210023</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1452</v>
+      </c>
+      <c r="H10" s="18">
+        <v>66</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:I22" si="4">+C10/D10</f>
+        <v>9.0430327868852469</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10:J22" si="5">+E10/C10</f>
+        <v>1.5525225586408455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18">
+        <v>11080</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1071.4000000000001</v>
+      </c>
+      <c r="E11" s="18">
+        <v>14450</v>
+      </c>
+      <c r="F11" s="18">
+        <v>252321</v>
+      </c>
+      <c r="G11" s="18">
+        <v>150</v>
+      </c>
+      <c r="H11" s="18">
+        <v>67</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="4"/>
+        <v>10.341609109576254</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3041516245487366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18">
+        <v>12750</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1217.5</v>
+      </c>
+      <c r="E12" s="18">
+        <v>17450</v>
+      </c>
+      <c r="F12" s="18">
+        <v>281449</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>63</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="4"/>
+        <v>10.472279260780287</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3686274509803922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C13" s="18">
         <v>14060</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D13" s="18">
         <v>1346.5</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E13" s="18">
         <v>18120</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F13" s="18">
         <v>310252</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G13" s="18">
         <v>2007</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H13" s="18">
         <v>62</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="4"/>
         <v>10.441886372075752</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J13" s="3">
         <f t="shared" si="5"/>
         <v>1.2887624466571834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="18">
-        <v>10770</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1169.5999999999999</v>
-      </c>
-      <c r="E11" s="18">
-        <v>14940</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2082763337893301</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3871866295264623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="18">
-        <v>7816.49</v>
-      </c>
-      <c r="D12" s="18">
-        <v>805.7</v>
-      </c>
-      <c r="E12" s="18">
-        <v>9999</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="3">
-        <f t="shared" si="4"/>
-        <v>9.7014893881097173</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="5"/>
-        <v>1.2792186774370593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="18">
-        <v>11790</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1050</v>
-      </c>
-      <c r="E13" s="18">
-        <v>12070</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="3">
-        <f t="shared" si="4"/>
-        <v>11.228571428571428</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0237489397794741</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -9167,27 +9165,27 @@
         <v>2024</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="18">
-        <v>9368.66</v>
+        <v>10770</v>
       </c>
       <c r="D14" s="18">
-        <v>896.4</v>
+        <v>1169.5999999999999</v>
       </c>
       <c r="E14" s="18">
-        <v>10940</v>
+        <v>14940</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="3">
         <f t="shared" si="4"/>
-        <v>10.451427933958055</v>
+        <v>9.2082763337893301</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="5"/>
-        <v>1.1677230254913724</v>
+        <v>1.3871866295264623</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -9195,27 +9193,27 @@
         <v>2024</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="18">
-        <v>10880</v>
+        <v>7816.49</v>
       </c>
       <c r="D15" s="18">
-        <v>1003.6</v>
+        <v>805.7</v>
       </c>
       <c r="E15" s="18">
-        <v>11900</v>
+        <v>9999</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="3">
         <f t="shared" si="4"/>
-        <v>10.840972499003588</v>
+        <v>9.7014893881097173</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="5"/>
-        <v>1.09375</v>
+        <v>1.2792186774370593</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -9223,27 +9221,27 @@
         <v>2024</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="18">
-        <v>12350</v>
+        <v>11790</v>
       </c>
       <c r="D16" s="18">
-        <v>1146.7</v>
+        <v>1050</v>
       </c>
       <c r="E16" s="18">
-        <v>13500</v>
+        <v>12070</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="3">
         <f t="shared" si="4"/>
-        <v>10.77003575477457</v>
+        <v>11.228571428571428</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="5"/>
-        <v>1.0931174089068827</v>
+        <v>1.0237489397794741</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -9251,27 +9249,27 @@
         <v>2024</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="18">
-        <v>10830</v>
+        <v>9368.66</v>
       </c>
       <c r="D17" s="18">
-        <v>1073.3</v>
+        <v>896.4</v>
       </c>
       <c r="E17" s="18">
-        <v>12490</v>
+        <v>10940</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="3">
         <f t="shared" si="4"/>
-        <v>10.090375477499302</v>
+        <v>10.451427933958055</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="5"/>
-        <v>1.1532779316712836</v>
+        <v>1.1677230254913724</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -9279,27 +9277,27 @@
         <v>2024</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18">
-        <v>7413</v>
+        <v>10880</v>
       </c>
       <c r="D18" s="18">
-        <v>782.6</v>
+        <v>1003.6</v>
       </c>
       <c r="E18" s="18">
-        <v>9613</v>
+        <v>11900</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="3">
         <f t="shared" si="4"/>
-        <v>9.4722719141323797</v>
+        <v>10.840972499003588</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="5"/>
-        <v>1.2967759341697018</v>
+        <v>1.09375</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -9307,27 +9305,27 @@
         <v>2024</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C19" s="18">
-        <v>3684.64</v>
+        <v>12350</v>
       </c>
       <c r="D19" s="18">
-        <v>420.8</v>
+        <v>1146.7</v>
       </c>
       <c r="E19" s="18">
-        <v>5699</v>
+        <v>13500</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="3">
         <f t="shared" si="4"/>
-        <v>8.7562737642585553</v>
+        <v>10.77003575477457</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="5"/>
-        <v>1.5466911285770117</v>
+        <v>1.0931174089068827</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -9335,27 +9333,27 @@
         <v>2024</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C20" s="18">
-        <v>5079.9799999999996</v>
+        <v>10830</v>
       </c>
       <c r="D20" s="18">
-        <v>530.79999999999995</v>
+        <v>1073.3</v>
       </c>
       <c r="E20" s="18">
-        <v>6575</v>
+        <v>12490</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:I34" si="6">+C20/D20</f>
-        <v>9.5704220045214772</v>
+        <f t="shared" si="4"/>
+        <v>10.090375477499302</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:J34" si="7">+E20/C20</f>
-        <v>1.2942964342379302</v>
+        <f t="shared" si="5"/>
+        <v>1.1532779316712836</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -9363,27 +9361,27 @@
         <v>2024</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" s="18">
-        <v>4946.3500000000004</v>
+        <v>7413</v>
       </c>
       <c r="D21" s="18">
-        <v>599.20000000000005</v>
+        <v>782.6</v>
       </c>
       <c r="E21" s="18">
-        <v>7999</v>
+        <v>9613</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="3">
-        <f t="shared" si="6"/>
-        <v>8.254923230974633</v>
+        <f t="shared" si="4"/>
+        <v>9.4722719141323797</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6171520414042677</v>
+        <f t="shared" si="5"/>
+        <v>1.2967759341697018</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -9391,111 +9389,111 @@
         <v>2024</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="18">
-        <v>7434.63</v>
+        <v>3684.64</v>
       </c>
       <c r="D22" s="18">
-        <v>838.5</v>
+        <v>420.8</v>
       </c>
       <c r="E22" s="18">
-        <v>10130</v>
+        <v>5699</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="3">
-        <f t="shared" si="6"/>
-        <v>8.8665831842576033</v>
+        <f t="shared" si="4"/>
+        <v>8.7562737642585553</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="7"/>
-        <v>1.362542587862476</v>
+        <f t="shared" si="5"/>
+        <v>1.5466911285770117</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="18">
-        <v>7313.9</v>
+        <v>5079.9799999999996</v>
       </c>
       <c r="D23" s="18">
-        <v>745.7</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="E23" s="18">
-        <v>8597</v>
+        <v>6575</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="3">
-        <f t="shared" si="6"/>
-        <v>9.8080997720262832</v>
+        <f t="shared" ref="I23:I37" si="6">+C23/D23</f>
+        <v>9.5704220045214772</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="7"/>
-        <v>1.1754330794788006</v>
+        <f t="shared" ref="J23:J37" si="7">+E23/C23</f>
+        <v>1.2942964342379302</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="18">
-        <v>7273.95</v>
+        <v>4946.3500000000004</v>
       </c>
       <c r="D24" s="18">
-        <v>818.3</v>
+        <v>599.20000000000005</v>
       </c>
       <c r="E24" s="18">
-        <v>9768</v>
+        <v>7999</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="3">
         <f t="shared" si="6"/>
-        <v>8.8890993523157764</v>
+        <v>8.254923230974633</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="7"/>
-        <v>1.3428742292702041</v>
+        <v>1.6171520414042677</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" s="18">
-        <v>6320.61</v>
+        <v>7434.63</v>
       </c>
       <c r="D25" s="18">
-        <v>751.6</v>
+        <v>838.5</v>
       </c>
       <c r="E25" s="18">
-        <v>9018</v>
+        <v>10130</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="3">
         <f t="shared" si="6"/>
-        <v>8.4095396487493339</v>
+        <v>8.8665831842576033</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="7"/>
-        <v>1.4267610246479376</v>
+        <v>1.362542587862476</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -9503,27 +9501,27 @@
         <v>2023</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="18">
-        <v>7159.39</v>
+        <v>7313.9</v>
       </c>
       <c r="D26" s="18">
-        <v>835.9</v>
+        <v>745.7</v>
       </c>
       <c r="E26" s="18">
-        <v>9682</v>
+        <v>8597</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>8.5648881445148941</v>
+        <v>9.8080997720262832</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="7"/>
-        <v>1.3523498510347949</v>
+        <v>1.1754330794788006</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -9531,27 +9529,27 @@
         <v>2023</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27" s="18">
-        <v>7532.41</v>
+        <v>7273.95</v>
       </c>
       <c r="D27" s="18">
-        <v>991.9</v>
+        <v>818.3</v>
       </c>
       <c r="E27" s="18">
-        <v>12160</v>
+        <v>9768</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="3">
         <f t="shared" si="6"/>
-        <v>7.5939207581409418</v>
+        <v>8.8890993523157764</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="7"/>
-        <v>1.6143571579348444</v>
+        <v>1.3428742292702041</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -9559,27 +9557,27 @@
         <v>2023</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28" s="18">
-        <v>8346.4</v>
+        <v>6320.61</v>
       </c>
       <c r="D28" s="18">
-        <v>1001.5</v>
+        <v>751.6</v>
       </c>
       <c r="E28" s="18">
-        <v>11390</v>
+        <v>9018</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="3">
         <f t="shared" si="6"/>
-        <v>8.3338991512730907</v>
+        <v>8.4095396487493339</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="7"/>
-        <v>1.364660212786351</v>
+        <v>1.4267610246479376</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -9587,27 +9585,27 @@
         <v>2023</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" s="18">
-        <v>6853.03</v>
+        <v>7159.39</v>
       </c>
       <c r="D29" s="18">
-        <v>822.3</v>
+        <v>835.9</v>
       </c>
       <c r="E29" s="18">
-        <v>9473</v>
+        <v>9682</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="3">
         <f t="shared" si="6"/>
-        <v>8.3339778669585307</v>
+        <v>8.5648881445148941</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="7"/>
-        <v>1.3823082636439648</v>
+        <v>1.3523498510347949</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -9615,27 +9613,27 @@
         <v>2023</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C30" s="18">
-        <v>3055.26</v>
+        <v>7532.41</v>
       </c>
       <c r="D30" s="18">
-        <v>475.2</v>
+        <v>991.9</v>
       </c>
       <c r="E30" s="18">
-        <v>6102</v>
+        <v>12160</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="3">
         <f t="shared" si="6"/>
-        <v>6.4294191919191928</v>
+        <v>7.5939207581409418</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="7"/>
-        <v>1.9972113666267355</v>
+        <v>1.6143571579348444</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -9643,27 +9641,27 @@
         <v>2023</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C31" s="18">
-        <v>2642.77</v>
+        <v>8346.4</v>
       </c>
       <c r="D31" s="18">
-        <v>505.5</v>
+        <v>1001.5</v>
       </c>
       <c r="E31" s="18">
-        <v>5858</v>
+        <v>11390</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="3">
         <f t="shared" si="6"/>
-        <v>5.2280316518298715</v>
+        <v>8.3338991512730907</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="7"/>
-        <v>2.216613628881817</v>
+        <v>1.364660212786351</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -9671,27 +9669,27 @@
         <v>2023</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C32" s="18">
-        <v>3796.24</v>
+        <v>6853.03</v>
       </c>
       <c r="D32" s="18">
-        <v>689.8</v>
+        <v>822.3</v>
       </c>
       <c r="E32" s="18">
-        <v>8103</v>
+        <v>9473</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="3">
         <f t="shared" si="6"/>
-        <v>5.5033922876196</v>
+        <v>8.3339778669585307</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="7"/>
-        <v>2.1344804332708156</v>
+        <v>1.3823082636439648</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -9699,27 +9697,27 @@
         <v>2023</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" s="18">
-        <v>4189.71</v>
+        <v>3055.26</v>
       </c>
       <c r="D33" s="18">
-        <v>740.5</v>
+        <v>475.2</v>
       </c>
       <c r="E33" s="18">
-        <v>9240</v>
+        <v>6102</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="3">
         <f t="shared" si="6"/>
-        <v>5.6579473328831869</v>
+        <v>6.4294191919191928</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="7"/>
-        <v>2.2054032379329356</v>
+        <v>1.9972113666267355</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -9727,111 +9725,111 @@
         <v>2023</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34" s="18">
-        <v>5284.34</v>
+        <v>2642.77</v>
       </c>
       <c r="D34" s="18">
-        <v>953.8</v>
+        <v>505.5</v>
       </c>
       <c r="E34" s="18">
-        <v>11720</v>
+        <v>5858</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="3">
         <f t="shared" si="6"/>
-        <v>5.54030195009436</v>
+        <v>5.2280316518298715</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="7"/>
-        <v>2.2178739445228732</v>
+        <v>2.216613628881817</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35" s="18">
-        <v>5576.8</v>
+        <v>3796.24</v>
       </c>
       <c r="D35" s="18">
-        <v>921.5</v>
+        <v>689.8</v>
       </c>
       <c r="E35" s="18">
-        <v>11210</v>
+        <v>8103</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="3">
-        <f t="shared" ref="I35:I82" si="8">+C35/D35</f>
-        <v>6.0518719479110148</v>
+        <f t="shared" si="6"/>
+        <v>5.5033922876196</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" ref="J35:J82" si="9">+E35/C35</f>
-        <v>2.0101133266389328</v>
+        <f t="shared" si="7"/>
+        <v>2.1344804332708156</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36" s="18">
-        <v>4183.95</v>
+        <v>4189.71</v>
       </c>
       <c r="D36" s="18">
-        <v>623.4</v>
+        <v>740.5</v>
       </c>
       <c r="E36" s="18">
-        <v>7582</v>
+        <v>9240</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="3">
-        <f t="shared" si="8"/>
-        <v>6.7115014436958615</v>
+        <f t="shared" si="6"/>
+        <v>5.6579473328831869</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="9"/>
-        <v>1.8121631472651443</v>
+        <f t="shared" si="7"/>
+        <v>2.2054032379329356</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" s="18">
-        <v>4552.01</v>
+        <v>5284.34</v>
       </c>
       <c r="D37" s="18">
-        <v>644.1</v>
+        <v>953.8</v>
       </c>
       <c r="E37" s="18">
-        <v>7070</v>
+        <v>11720</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="3">
-        <f t="shared" si="8"/>
-        <v>7.0672411116286291</v>
+        <f t="shared" si="6"/>
+        <v>5.54030195009436</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="9"/>
-        <v>1.5531600326009829</v>
+        <f t="shared" si="7"/>
+        <v>2.2178739445228732</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -9839,27 +9837,27 @@
         <v>2022</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C38" s="18">
-        <v>4785.21</v>
+        <v>5576.8</v>
       </c>
       <c r="D38" s="18">
-        <v>699.5</v>
+        <v>921.5</v>
       </c>
       <c r="E38" s="18">
-        <v>7792</v>
+        <v>11210</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="3">
-        <f t="shared" si="8"/>
-        <v>6.8409006433166546</v>
+        <f t="shared" ref="I38:I85" si="8">+C38/D38</f>
+        <v>6.0518719479110148</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="9"/>
-        <v>1.6283506888934864</v>
+        <f t="shared" ref="J38:J85" si="9">+E38/C38</f>
+        <v>2.0101133266389328</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -9867,27 +9865,27 @@
         <v>2022</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" s="18">
-        <v>6007.68</v>
+        <v>4183.95</v>
       </c>
       <c r="D39" s="18">
-        <v>888.3</v>
+        <v>623.4</v>
       </c>
       <c r="E39" s="18">
-        <v>10280</v>
+        <v>7582</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="3">
         <f t="shared" si="8"/>
-        <v>6.7631205673758874</v>
+        <v>6.7115014436958615</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="9"/>
-        <v>1.7111430702034729</v>
+        <v>1.8121631472651443</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -9895,27 +9893,27 @@
         <v>2022</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40" s="18">
-        <v>4630.74</v>
+        <v>4552.01</v>
       </c>
       <c r="D40" s="18">
-        <v>719.7</v>
+        <v>644.1</v>
       </c>
       <c r="E40" s="18">
-        <v>8090</v>
+        <v>7070</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="3">
         <f t="shared" si="8"/>
-        <v>6.4342642767819918</v>
+        <v>7.0672411116286291</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="9"/>
-        <v>1.7470209944846828</v>
+        <v>1.5531600326009829</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -9923,27 +9921,27 @@
         <v>2022</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41" s="18">
-        <v>3927.25</v>
+        <v>4785.21</v>
       </c>
       <c r="D41" s="18">
-        <v>550.20000000000005</v>
+        <v>699.5</v>
       </c>
       <c r="E41" s="18">
-        <v>6465</v>
+        <v>7792</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="3">
         <f t="shared" si="8"/>
-        <v>7.1378589603780433</v>
+        <v>6.8409006433166546</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="9"/>
-        <v>1.6461900821185307</v>
+        <v>1.6283506888934864</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -9951,27 +9949,27 @@
         <v>2022</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C42" s="18">
-        <v>4718.2</v>
+        <v>6007.68</v>
       </c>
       <c r="D42" s="18">
-        <v>674.4</v>
+        <v>888.3</v>
       </c>
       <c r="E42" s="18">
-        <v>7938</v>
+        <v>10280</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="3">
         <f t="shared" si="8"/>
-        <v>6.9961447212336889</v>
+        <v>6.7631205673758874</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="9"/>
-        <v>1.6824212623458099</v>
+        <v>1.7111430702034729</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -9979,27 +9977,27 @@
         <v>2022</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C43" s="18">
-        <v>3497.6</v>
+        <v>4630.74</v>
       </c>
       <c r="D43" s="18">
-        <v>498</v>
+        <v>719.7</v>
       </c>
       <c r="E43" s="18">
-        <v>5745</v>
+        <v>8090</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="3">
         <f t="shared" si="8"/>
-        <v>7.0232931726907628</v>
+        <v>6.4342642767819918</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="9"/>
-        <v>1.6425548947849955</v>
+        <v>1.7470209944846828</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -10007,27 +10005,27 @@
         <v>2022</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C44" s="18">
-        <v>2597.64</v>
+        <v>3927.25</v>
       </c>
       <c r="D44" s="18">
-        <v>369.4</v>
+        <v>550.20000000000005</v>
       </c>
       <c r="E44" s="18">
-        <v>4471</v>
+        <v>6465</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="3">
         <f t="shared" si="8"/>
-        <v>7.032051976177585</v>
+        <v>7.1378589603780433</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="9"/>
-        <v>1.7211776843596496</v>
+        <v>1.6461900821185307</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -10035,27 +10033,27 @@
         <v>2022</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" s="18">
-        <v>3927.19</v>
+        <v>4718.2</v>
       </c>
       <c r="D45" s="18">
-        <v>525</v>
+        <v>674.4</v>
       </c>
       <c r="E45" s="18">
-        <v>6376</v>
+        <v>7938</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="3">
         <f t="shared" si="8"/>
-        <v>7.4803619047619048</v>
+        <v>6.9961447212336889</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="9"/>
-        <v>1.6235527183558727</v>
+        <v>1.6824212623458099</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -10063,111 +10061,111 @@
         <v>2022</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C46" s="18">
-        <v>4261.03</v>
+        <v>3497.6</v>
       </c>
       <c r="D46" s="18">
-        <v>640.20000000000005</v>
+        <v>498</v>
       </c>
       <c r="E46" s="18">
-        <v>8092</v>
+        <v>5745</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="3">
         <f t="shared" si="8"/>
-        <v>6.6557794439237732</v>
+        <v>7.0232931726907628</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="9"/>
-        <v>1.8990713512929973</v>
+        <v>1.6425548947849955</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="18">
-        <v>4203.43</v>
+        <v>2597.64</v>
       </c>
       <c r="D47" s="18">
-        <v>642.70000000000005</v>
+        <v>369.4</v>
       </c>
       <c r="E47" s="18">
-        <v>7805</v>
+        <v>4471</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="3">
         <f t="shared" si="8"/>
-        <v>6.5402676209740163</v>
+        <v>7.032051976177585</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="9"/>
-        <v>1.8568169328381821</v>
+        <v>1.7211776843596496</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" s="18">
-        <v>3927.36</v>
+        <v>3927.19</v>
       </c>
       <c r="D48" s="18">
-        <v>555.9</v>
+        <v>525</v>
       </c>
       <c r="E48" s="18">
-        <v>6636</v>
+        <v>6376</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="3">
         <f t="shared" si="8"/>
-        <v>7.0648677819751757</v>
+        <v>7.4803619047619048</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="9"/>
-        <v>1.6896846736739184</v>
+        <v>1.6235527183558727</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49" s="18">
-        <v>4342.5600000000004</v>
+        <v>4261.03</v>
       </c>
       <c r="D49" s="18">
-        <v>696.6</v>
+        <v>640.20000000000005</v>
       </c>
       <c r="E49" s="18">
-        <v>8925</v>
+        <v>8092</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="3">
         <f t="shared" si="8"/>
-        <v>6.2339362618432386</v>
+        <v>6.6557794439237732</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="9"/>
-        <v>2.055239305847242</v>
+        <v>1.8990713512929973</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -10175,27 +10173,27 @@
         <v>2021</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" s="18">
-        <v>3282.91</v>
+        <v>4203.43</v>
       </c>
       <c r="D50" s="18">
-        <v>518.20000000000005</v>
+        <v>642.70000000000005</v>
       </c>
       <c r="E50" s="18">
-        <v>6275</v>
+        <v>7805</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="3">
         <f t="shared" si="8"/>
-        <v>6.3352180625241212</v>
+        <v>6.5402676209740163</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="9"/>
-        <v>1.9114139589571448</v>
+        <v>1.8568169328381821</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -10203,27 +10201,27 @@
         <v>2021</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51" s="18">
-        <v>3153.53</v>
+        <v>3927.36</v>
       </c>
       <c r="D51" s="18">
-        <v>399.7</v>
+        <v>555.9</v>
       </c>
       <c r="E51" s="18">
-        <v>4907</v>
+        <v>6636</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
       <c r="I51" s="3">
         <f t="shared" si="8"/>
-        <v>7.8897423067300485</v>
+        <v>7.0648677819751757</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="9"/>
-        <v>1.5560340317041537</v>
+        <v>1.6896846736739184</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -10231,27 +10229,27 @@
         <v>2021</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C52" s="18">
-        <v>2372.09</v>
+        <v>4342.5600000000004</v>
       </c>
       <c r="D52" s="18">
-        <v>329.8</v>
+        <v>696.6</v>
       </c>
       <c r="E52" s="18">
-        <v>4251</v>
+        <v>8925</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="3">
         <f t="shared" si="8"/>
-        <v>7.1925106124924199</v>
+        <v>6.2339362618432386</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="9"/>
-        <v>1.7920905193310539</v>
+        <v>2.055239305847242</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -10259,27 +10257,27 @@
         <v>2021</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53" s="18">
-        <v>2945.88</v>
+        <v>3282.91</v>
       </c>
       <c r="D53" s="18">
-        <v>445.6</v>
+        <v>518.20000000000005</v>
       </c>
       <c r="E53" s="18">
-        <v>5426</v>
+        <v>6275</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="3">
         <f t="shared" si="8"/>
-        <v>6.611041292639138</v>
+        <v>6.3352180625241212</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="9"/>
-        <v>1.8418944424077015</v>
+        <v>1.9114139589571448</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -10287,27 +10285,27 @@
         <v>2021</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C54" s="18">
-        <v>1142.2</v>
+        <v>3153.53</v>
       </c>
       <c r="D54" s="18">
-        <v>188.8</v>
+        <v>399.7</v>
       </c>
       <c r="E54" s="18">
-        <v>2290</v>
+        <v>4907</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="3">
         <f t="shared" si="8"/>
-        <v>6.0497881355932206</v>
+        <v>7.8897423067300485</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="9"/>
-        <v>2.0049028191209946</v>
+        <v>1.5560340317041537</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -10315,27 +10313,27 @@
         <v>2021</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C55" s="18">
-        <v>1089.53</v>
+        <v>2372.09</v>
       </c>
       <c r="D55" s="18">
-        <v>171.2</v>
+        <v>329.8</v>
       </c>
       <c r="E55" s="18">
-        <v>2078</v>
+        <v>4251</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="3">
         <f t="shared" si="8"/>
-        <v>6.3640771028037388</v>
+        <v>7.1925106124924199</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="9"/>
-        <v>1.9072444081392894</v>
+        <v>1.7920905193310539</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -10343,27 +10341,27 @@
         <v>2021</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C56" s="18">
-        <v>1701.4</v>
+        <v>2945.88</v>
       </c>
       <c r="D56" s="18">
-        <v>236.2</v>
+        <v>445.6</v>
       </c>
       <c r="E56" s="18">
-        <v>3041</v>
+        <v>5426</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="3">
         <f t="shared" si="8"/>
-        <v>7.2032176121930576</v>
+        <v>6.611041292639138</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="9"/>
-        <v>1.7873515928059245</v>
+        <v>1.8418944424077015</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -10371,27 +10369,27 @@
         <v>2021</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" s="18">
-        <v>1234.97</v>
+        <v>1142.2</v>
       </c>
       <c r="D57" s="18">
-        <v>180.9</v>
+        <v>188.8</v>
       </c>
       <c r="E57" s="18">
-        <v>2260</v>
+        <v>2290</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="3">
         <f t="shared" si="8"/>
-        <v>6.8268103924820345</v>
+        <v>6.0497881355932206</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="9"/>
-        <v>1.8300039677077176</v>
+        <v>2.0049028191209946</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -10399,111 +10397,111 @@
         <v>2021</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" s="18">
-        <v>1524.01</v>
+        <v>1089.53</v>
       </c>
       <c r="D58" s="18">
-        <v>227.8</v>
+        <v>171.2</v>
       </c>
       <c r="E58" s="18">
-        <v>2763</v>
+        <v>2078</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="3">
         <f t="shared" si="8"/>
-        <v>6.690122914837576</v>
+        <v>6.3640771028037388</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="9"/>
-        <v>1.8129802297885185</v>
+        <v>1.9072444081392894</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C59" s="18">
-        <v>1806.11</v>
+        <v>1701.4</v>
       </c>
       <c r="D59" s="18">
-        <v>276.3</v>
+        <v>236.2</v>
       </c>
       <c r="E59" s="18">
-        <v>2926</v>
+        <v>3041</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="3">
         <f t="shared" si="8"/>
-        <v>6.5367716250452403</v>
+        <v>7.2032176121930576</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="9"/>
-        <v>1.6200563642303072</v>
+        <v>1.7873515928059245</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C60" s="18">
-        <v>1066.67</v>
+        <v>1234.97</v>
       </c>
       <c r="D60" s="18">
-        <v>169</v>
+        <v>180.9</v>
       </c>
       <c r="E60" s="18">
-        <v>1662</v>
+        <v>2260</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="3">
         <f t="shared" si="8"/>
-        <v>6.3116568047337278</v>
+        <v>6.8268103924820345</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="9"/>
-        <v>1.5581201308745909</v>
+        <v>1.8300039677077176</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" s="18">
-        <v>1079.82</v>
+        <v>1524.01</v>
       </c>
       <c r="D61" s="18">
-        <v>188.8</v>
+        <v>227.8</v>
       </c>
       <c r="E61" s="18">
-        <v>2125</v>
+        <v>2763</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="3">
         <f t="shared" si="8"/>
-        <v>5.7193855932203386</v>
+        <v>6.690122914837576</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="9"/>
-        <v>1.9679205793558188</v>
+        <v>1.8129802297885185</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -10511,27 +10509,27 @@
         <v>2020</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C62" s="18">
-        <v>1265.95</v>
+        <v>1806.11</v>
       </c>
       <c r="D62" s="18">
-        <v>258.7</v>
+        <v>276.3</v>
       </c>
       <c r="E62" s="18">
-        <v>3049</v>
+        <v>2926</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="3">
         <f t="shared" si="8"/>
-        <v>4.8935059914959416</v>
+        <v>6.5367716250452403</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="9"/>
-        <v>2.4084679489711283</v>
+        <v>1.6200563642303072</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
@@ -10539,27 +10537,27 @@
         <v>2020</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C63" s="18">
-        <v>1204.3399999999999</v>
+        <v>1066.67</v>
       </c>
       <c r="D63" s="18">
-        <v>257.2</v>
+        <v>169</v>
       </c>
       <c r="E63" s="18">
-        <v>3283</v>
+        <v>1662</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="3">
         <f t="shared" si="8"/>
-        <v>4.6825038880248835</v>
+        <v>6.3116568047337278</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="9"/>
-        <v>2.7259743926133817</v>
+        <v>1.5581201308745909</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -10567,27 +10565,27 @@
         <v>2020</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C64" s="18">
-        <v>1866.33</v>
+        <v>1079.82</v>
       </c>
       <c r="D64" s="18">
-        <v>337.8</v>
+        <v>188.8</v>
       </c>
       <c r="E64" s="18">
-        <v>4043</v>
+        <v>2125</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="3">
         <f t="shared" si="8"/>
-        <v>5.5249555950266425</v>
+        <v>5.7193855932203386</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="9"/>
-        <v>2.1662835618566922</v>
+        <v>1.9679205793558188</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -10595,27 +10593,27 @@
         <v>2020</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C65" s="18">
-        <v>856.29</v>
+        <v>1265.95</v>
       </c>
       <c r="D65" s="18">
-        <v>169.2</v>
+        <v>258.7</v>
       </c>
       <c r="E65" s="18">
-        <v>1988</v>
+        <v>3049</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="3">
         <f t="shared" si="8"/>
-        <v>5.0608156028368798</v>
+        <v>4.8935059914959416</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="9"/>
-        <v>2.3216433684849758</v>
+        <v>2.4084679489711283</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
@@ -10623,27 +10621,27 @@
         <v>2020</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C66" s="18">
-        <v>208.87</v>
+        <v>1204.3399999999999</v>
       </c>
       <c r="D66" s="18">
-        <v>77.400000000000006</v>
+        <v>257.2</v>
       </c>
       <c r="E66" s="18">
-        <v>989</v>
+        <v>3283</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="3">
         <f t="shared" si="8"/>
-        <v>2.6985788113695088</v>
+        <v>4.6825038880248835</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="9"/>
-        <v>4.7350026332168333</v>
+        <v>2.7259743926133817</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -10651,27 +10649,27 @@
         <v>2020</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C67" s="18">
-        <v>217.95</v>
+        <v>1866.33</v>
       </c>
       <c r="D67" s="18">
-        <v>49</v>
+        <v>337.8</v>
       </c>
       <c r="E67" s="18">
-        <v>626</v>
+        <v>4043</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="3">
         <f t="shared" si="8"/>
-        <v>4.4479591836734693</v>
+        <v>5.5249555950266425</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" si="9"/>
-        <v>2.8722183987153018</v>
+        <v>2.1662835618566922</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -10679,27 +10677,27 @@
         <v>2020</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C68" s="18">
-        <v>207.97</v>
+        <v>856.29</v>
       </c>
       <c r="D68" s="18">
-        <v>47.4</v>
+        <v>169.2</v>
       </c>
       <c r="E68" s="18">
-        <v>727</v>
+        <v>1988</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="3">
         <f t="shared" si="8"/>
-        <v>4.3875527426160339</v>
+        <v>5.0608156028368798</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" si="9"/>
-        <v>3.4956964946867335</v>
+        <v>2.3216433684849758</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -10707,27 +10705,27 @@
         <v>2020</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" s="18">
-        <v>92.68</v>
+        <v>208.87</v>
       </c>
       <c r="D69" s="18">
-        <v>43.7</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="E69" s="18">
-        <v>1026</v>
+        <v>989</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="3">
         <f t="shared" si="8"/>
-        <v>2.1208237986270024</v>
+        <v>2.6985788113695088</v>
       </c>
       <c r="J69" s="3">
         <f t="shared" si="9"/>
-        <v>11.070349589987051</v>
+        <v>4.7350026332168333</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -10735,111 +10733,111 @@
         <v>2020</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C70" s="18">
-        <v>404.01</v>
+        <v>217.95</v>
       </c>
       <c r="D70" s="18">
-        <v>120.9</v>
+        <v>49</v>
       </c>
       <c r="E70" s="18">
-        <v>1852</v>
+        <v>626</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="3">
         <f t="shared" si="8"/>
-        <v>3.3416873449131512</v>
+        <v>4.4479591836734693</v>
       </c>
       <c r="J70" s="3">
         <f t="shared" si="9"/>
-        <v>4.5840449493824416</v>
+        <v>2.8722183987153018</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C71" s="18">
-        <v>368.26</v>
+        <v>207.97</v>
       </c>
       <c r="D71" s="18">
-        <v>113.6</v>
+        <v>47.4</v>
       </c>
       <c r="E71" s="18">
-        <v>1610</v>
+        <v>727</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="3">
         <f t="shared" si="8"/>
-        <v>3.2417253521126761</v>
+        <v>4.3875527426160339</v>
       </c>
       <c r="J71" s="3">
         <f t="shared" si="9"/>
-        <v>4.3719111497311687</v>
+        <v>3.4956964946867335</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C72" s="18">
-        <v>355.69</v>
+        <v>92.68</v>
       </c>
       <c r="D72" s="18">
-        <v>90.2</v>
+        <v>43.7</v>
       </c>
       <c r="E72" s="18">
-        <v>1086</v>
+        <v>1026</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
       <c r="I72" s="3">
         <f t="shared" si="8"/>
-        <v>3.9433481152993348</v>
+        <v>2.1208237986270024</v>
       </c>
       <c r="J72" s="3">
         <f t="shared" si="9"/>
-        <v>3.05322050099806</v>
+        <v>11.070349589987051</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C73" s="18">
-        <v>783.1</v>
+        <v>404.01</v>
       </c>
       <c r="D73" s="18">
-        <v>173.7</v>
+        <v>120.9</v>
       </c>
       <c r="E73" s="18">
-        <v>2325</v>
+        <v>1852</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
       <c r="I73" s="3">
         <f t="shared" si="8"/>
-        <v>4.508347725964307</v>
+        <v>3.3416873449131512</v>
       </c>
       <c r="J73" s="3">
         <f t="shared" si="9"/>
-        <v>2.9689694802707187</v>
+        <v>4.5840449493824416</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -10847,27 +10845,27 @@
         <v>2019</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74" s="18">
-        <v>553.51</v>
+        <v>368.26</v>
       </c>
       <c r="D74" s="18">
-        <v>132.19999999999999</v>
+        <v>113.6</v>
       </c>
       <c r="E74" s="18">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
       <c r="I74" s="3">
         <f t="shared" si="8"/>
-        <v>4.1869137670196679</v>
+        <v>3.2417253521126761</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" si="9"/>
-        <v>2.9376163032284874</v>
+        <v>4.3719111497311687</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -10875,27 +10873,27 @@
         <v>2019</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C75" s="18">
-        <v>541.26</v>
+        <v>355.69</v>
       </c>
       <c r="D75" s="18">
-        <v>138.80000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="E75" s="18">
-        <v>1594</v>
+        <v>1086</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="3">
         <f t="shared" si="8"/>
-        <v>3.8995677233429391</v>
+        <v>3.9433481152993348</v>
       </c>
       <c r="J75" s="3">
         <f t="shared" si="9"/>
-        <v>2.9449802313121238</v>
+        <v>3.05322050099806</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -10903,27 +10901,27 @@
         <v>2019</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C76" s="18">
-        <v>597.30999999999995</v>
+        <v>783.1</v>
       </c>
       <c r="D76" s="18">
-        <v>163.30000000000001</v>
+        <v>173.7</v>
       </c>
       <c r="E76" s="18">
-        <v>2003</v>
+        <v>2325</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="3">
         <f t="shared" si="8"/>
-        <v>3.6577464788732388</v>
+        <v>4.508347725964307</v>
       </c>
       <c r="J76" s="3">
         <f t="shared" si="9"/>
-        <v>3.3533675980646569</v>
+        <v>2.9689694802707187</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -10931,27 +10929,27 @@
         <v>2019</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C77" s="18">
-        <v>342.59</v>
+        <v>553.51</v>
       </c>
       <c r="D77" s="18">
-        <v>87.8</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="E77" s="18">
-        <v>1068</v>
+        <v>1626</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
       <c r="I77" s="3">
         <f t="shared" si="8"/>
-        <v>3.9019362186788151</v>
+        <v>4.1869137670196679</v>
       </c>
       <c r="J77" s="3">
         <f t="shared" si="9"/>
-        <v>3.1174289967599758</v>
+        <v>2.9376163032284874</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -10959,27 +10957,27 @@
         <v>2019</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C78" s="18">
-        <v>237.91</v>
+        <v>541.26</v>
       </c>
       <c r="D78" s="18">
-        <v>71.599999999999994</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="E78" s="18">
-        <v>928</v>
+        <v>1594</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="3">
         <f t="shared" si="8"/>
-        <v>3.3227653631284917</v>
+        <v>3.8995677233429391</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="9"/>
-        <v>3.90063469379177</v>
+        <v>2.9449802313121238</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
@@ -10987,27 +10985,27 @@
         <v>2019</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C79" s="18">
-        <v>55.97</v>
+        <v>597.30999999999995</v>
       </c>
       <c r="D79" s="18">
-        <v>19.5</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="E79" s="18">
-        <v>255</v>
+        <v>2003</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="3">
         <f t="shared" si="8"/>
-        <v>2.8702564102564101</v>
+        <v>3.6577464788732388</v>
       </c>
       <c r="J79" s="3">
         <f t="shared" si="9"/>
-        <v>4.5560121493657322</v>
+        <v>3.3533675980646569</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
@@ -11015,27 +11013,27 @@
         <v>2019</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C80" s="18">
-        <v>4.87</v>
+        <v>342.59</v>
       </c>
       <c r="D80" s="18">
-        <v>2.2999999999999998</v>
+        <v>87.8</v>
       </c>
       <c r="E80" s="18">
-        <v>22</v>
+        <v>1068</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="3">
         <f t="shared" si="8"/>
-        <v>2.1173913043478261</v>
+        <v>3.9019362186788151</v>
       </c>
       <c r="J80" s="3">
         <f t="shared" si="9"/>
-        <v>4.517453798767967</v>
+        <v>3.1174289967599758</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -11043,27 +11041,27 @@
         <v>2019</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" s="18">
-        <v>1</v>
+        <v>237.91</v>
       </c>
       <c r="D81" s="18">
-        <v>1</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="E81" s="18">
-        <v>1</v>
+        <v>928</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
       <c r="I81" s="3">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3.3227653631284917</v>
       </c>
       <c r="J81" s="3">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3.90063469379177</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -11071,31 +11069,115 @@
         <v>2019</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C82" s="18">
-        <v>1</v>
+        <v>55.97</v>
       </c>
       <c r="D82" s="18">
-        <v>1</v>
+        <v>19.5</v>
       </c>
       <c r="E82" s="18">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="3">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2.8702564102564101</v>
       </c>
       <c r="J82" s="3">
         <f t="shared" si="9"/>
+        <v>4.5560121493657322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="18">
+        <v>4.87</v>
+      </c>
+      <c r="D83" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E83" s="18">
+        <v>22</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="3">
+        <f t="shared" si="8"/>
+        <v>2.1173913043478261</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="9"/>
+        <v>4.517453798767967</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="18">
         <v>1</v>
       </c>
+      <c r="D84" s="18">
+        <v>1</v>
+      </c>
+      <c r="E84" s="18">
+        <v>1</v>
+      </c>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="18">
+        <v>1</v>
+      </c>
+      <c r="D85" s="18">
+        <v>1</v>
+      </c>
+      <c r="E85" s="18">
+        <v>1</v>
+      </c>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J82" xr:uid="{3DFEE9A8-96B4-4338-BEB2-3F3FAE19909E}"/>
+  <autoFilter ref="A1:J85" xr:uid="{3DFEE9A8-96B4-4338-BEB2-3F3FAE19909E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11110,7 +11192,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
